--- a/매출증가지수.xlsx
+++ b/매출증가지수.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\OneDrive\바탕 화면\매출증가지수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4AD05-9F70-4710-AA46-E720589844CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D35C64-1F5D-404D-9439-13185AC4810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{A6162582-DE1F-4578-9B2B-7FD4E34643A9}"/>
+    <workbookView xWindow="-22740" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{A6162582-DE1F-4578-9B2B-7FD4E34643A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -505,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA477C1-50D9-442E-9B81-2680601244C7}">
   <dimension ref="C1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
